--- a/常用（じょうよう）.xlsx
+++ b/常用（じょうよう）.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\苗欣奕的东西\折跃\Japanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED1AFAA-F2ED-4174-BA4E-1BB15C2EBAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D85BB9-E052-4D92-9E80-739253DBCA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13908" yWindow="3192" windowWidth="11652" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="短句(语气)" sheetId="1" r:id="rId1"/>
     <sheet name="Common" sheetId="2" r:id="rId2"/>
-    <sheet name="話題（わだい）" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="151">
   <si>
     <t>将来会怎样</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,42 +868,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高くつく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高く売れる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>たかくつく</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>たかくうれる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值钱的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过高估计价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高く飛ぶ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>たかくとぶ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出人头地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>わからなくて当然ですようね</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -943,6 +905,22 @@
   </si>
   <si>
     <t>所见略同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ふと思い出す</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然回忆拿出来了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗は常にあることです</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败是经常有的事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1506,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1544,42 +1522,58 @@
     </row>
     <row r="5" spans="1:3" ht="18">
       <c r="A5" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="A7" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18">
       <c r="A8" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18">
       <c r="A9" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C9" t="s">
-        <v>155</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18">
+      <c r="A10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2155,69 +2149,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614D149C-57CD-4277-B24B-E1BE0CF9D47E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB7150C-C351-4A54-8774-8683C489A988}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="18">
-      <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" ht="18">
-      <c r="A2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18">
-      <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>